--- a/outputs/MSN20251028359/MSN20251028359银行流水1_audit_report.xlsx
+++ b/outputs/MSN20251028359/MSN20251028359银行流水1_audit_report.xlsx
@@ -488,7 +488,7 @@
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>生成时间: 2026-01-30 12:28:17</t>
+          <t>生成时间: 2026-02-01 20:12:41</t>
         </is>
       </c>
     </row>
@@ -680,32 +680,36 @@
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>【审计规则执行过程】
-1. 执行判断逻辑 Step 1：从 'Comportamiento' 表格中提取 'Depósitos / Abonos (+)' 对应的总笔数（Total Movimientos Abonos）。
-   - 执行结果：在提供的 'Comportamiento' 和 'total_movimientos' 数据中，均明确显示 'total_movimientos_abonos: 4'。因此，数值1 = 4。
-2. 执行判断逻辑 Step 2：遍历 'Detalle de Movimientos Realizados'（交易明细）部分的所有交易行。
-   - 执行结果：明细部分共列出34条交易记录。
-3. 执行判断逻辑 Step 3：[关键过滤] 仅统计 'Abonos' 列有有效数值（非空且不为0）的行。如果某行只有 'Cargo' 列有值，必须忽略。
-   - 执行结果：逐行检查34条明细，'Abonos' 列有数值（非空且不为0）的行如下（按原始顺序列出）：
-     第16行：Abono:13637.59
-     第24行：Abono:82941.29
-     第25行：Abono:63925.15
-     第33行：Abono:3580.0
-4. 执行判断逻辑 Step 4：计算符合条件的交易总行数。
-   - 执行结果：符合条件的交易共4行。因此，数值2 = 4。
-5. 执行校验规则：比较1和2是否相等。
-   - 执行结果：数值1 (4) 与 数值2 (4) 相等。
-6. 执行决策结果：如果相等，输出一致（无异常）；如果不相等，输出不一致（异常）。
-   - 执行结果：两个数值相等，因此输出“一致”。
-7. 执行 hit 值判断逻辑：如果两个数值相等 → 根据决策结果输出“一致” → hit=false（合规/未命中）。
-   - 执行结果：hit=false。
-【最终结论】
-来自 Comportamiento 的入账总笔数 (4) 与交易明细中统计的 Abonos 有效交易笔数 (4) 一致，数据匹配，审计未发现异常。</t>
+          <t>规则ID: MSTAR_BBVA_DTL_CNT_ABONOS
+规则名称: 明细交易笔数校验_入账笔数
+执行步骤与结果：
+(Step 1) 从 'Comportamiento' 表格中提取 'Depósitos / Abonos (+)'（入账）对应的总笔数（Total Movimientos Abonos）。
+- 数据来源：在提供的“Comportamiento”部分和“total_movimientos”部分均明确列出：'Depósitos / Abonos (+): 4' 和 'total_movimientos_abonos: 4'。
+- 提取结果：数值1 = 4。
+(Step 2) 遍历 'Detalle de Movimientos Realizados'或raw_transaction_data（交易明细）部分的所有交易行。
+- 数据来源：已提供的结构化明细，总笔数为34。
+(Step 3) [关键过滤] 仅统计 'Abonos' 列有有效数值（非空且不为0）的行。如果某行只有 'Cargo' 列有值，必须忽略。
+- 执行过滤：逐行检查明细数据中的“ABONOS”字段。
+- 符合条件的交易明细（共4笔）：
+  1. 行16: Oper:18/JUL | ABONOS:13637.59
+  2. 行24: Oper:29/JUL | ABONOS:82941.29
+  3. 行25: Oper:29/JUL | ABONOS:63925.15
+  4. 行33: Oper:31/JUL | ABONOS:3580.0
+- 所有其他行的“ABONOS”字段为“无”或空，已忽略。
+(Step 4) 计算符合条件的交易总行数。
+- 统计结果：数值2 = 4。
+校验规则：比较数值1和数值2是否相等。
+- 数值1 (来自Comportamiento) = 4
+- 数值2 (来自明细统计) = 4
+- 比较结果：两个数值相等。
+决策结果：如果相等，输出一致（无异常）。
+- 结论：一致。
+hit值判定：根据规则，一致 = 合规 = hit=false。</t>
         </is>
       </c>
       <c r="F20" s="5" t="inlineStr">
         <is>
-          <t>审计严格按照规则 MSTAR_BBVA_DTL_CNT_ABONOS 的逻辑步骤执行，数据完整，判断清晰。</t>
+          <t>系统提供的参考值“其中包含有效 Abonos (入账) 的交易数: 4”与手动统计结果一致，进一步确认了统计的准确性。</t>
         </is>
       </c>
     </row>
@@ -732,61 +736,39 @@
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
-          <t>【执行步骤说明】
-严格按照规则MSTAR_BBVA_DTL_CNT_CARGOS的判断逻辑执行：
-(Step 1) 从'Comportamiento'表格中提取'Retiros / Cargos (-)'对应的总笔数。根据提供的'Comportamiento'部分，明确记录为：Retiros / Cargos (-): 30  200,879.96。因此，数值1（来自Comportamiento的总笔数）为30。
-(Step 2) 遍历'Detalle de Movimientos Realizados'部分的所有交易行。该部分共列出34笔交易。
-(Step 3) [关键过滤] 仅统计'Cargos'列有有效数值（非空且不为0）的行。如果某行只有'Abono'列有值，必须忽略。
+          <t>规则ID: MSTAR_BBVA_DTL_CNT_CARGOS
+规则名称: 明细交易笔数校验_出账笔数
+执行步骤（严格按照判断逻辑）：
+(Step 1) 从 'Comportamiento' 表格中提取 'Retiros / Cargos (-)'（出账）对应的总笔数（Total Movimientos Cargos）。
+- 执行结果：在提供的 'Comportamiento' 和 'total_movimientos' 数据中，均明确记录 'total_movimientos_cargos: 30'。因此，数值1 = 30。
+(Step 2) 遍历 'Detalle de Movimientos Realizados'（交易明细）部分的所有交易行。
+- 执行结果：明细部分共列出 34 笔交易。
+(Step 3) [关键过滤] 仅统计 'Cargos' 列有有效数值（非空且不为0）的行。如果某行只有 'Abono' 列有值，必须忽略。
+- 执行结果：逐行检查明细。
+- 第1-15行：CARGOS列均有数值，计入统计。
+- 第16行：CARGOS为“无”，ABONOS有值，忽略。
+- 第17-23行：CARGOS列均有数值，计入统计。
+- 第24-25行：CARGOS为“无”，ABONOS有值，忽略。
+- 第26-32行：CARGOS列均有数值，计入统计。
+- 第33行：CARGOS为“无”，ABONOS有值，忽略。
+- 第34行：CARGOS列有数值，计入统计。
+- 过滤后，符合条件的交易明细行共 30 笔。
 (Step 4) 计算符合条件的交易总行数。
-【逐笔明细统计】
-按照原始顺序，逐行检查'Cargos'列：
-1. Cargo:1676.47 -&gt; 计入。
-2. Cargo:16182.0 -&gt; 计入。
-3. Cargo:1373.54 -&gt; 计入。
-4. Cargo:8725.74 -&gt; 计入。
-5. Cargo:1503.93 -&gt; 计入。
-6. Cargo:15.0 -&gt; 计入。
-7. Cargo:2.4 -&gt; 计入。
-8. Cargo:1639.2 -&gt; 计入。
-9. Cargo:865.0 -&gt; 计入。
-10. Cargo:4400.0 -&gt; 计入。
-11. Cargo:1940.11 -&gt; 计入。
-12. Cargo:1562.56 -&gt; 计入。
-13. Cargo:2083.0 -&gt; 计入。
-14. Cargo:27970.0 -&gt; 计入。
-15. Cargo:1432.85 -&gt; 计入。
-16. Cargo:无 (Abono有值) -&gt; 忽略。
-17. Cargo:1460.56 -&gt; 计入。
-18. Cargo:7787.67 -&gt; 计入。
-19. Cargo:843.53 -&gt; 计入。
-20. Cargo:1457.17 -&gt; 计入。
-21. Cargo:260.0 -&gt; 计入。
-22. Cargo:1485.73 -&gt; 计入。
-23. Cargo:1063.72 -&gt; 计入。
-24. Cargo:无 (Abono有值) -&gt; 忽略。
-25. Cargo:无 (Abono有值) -&gt; 忽略。
-26. Cargo:1392.58 -&gt; 计入。
-27. Cargo:1137.5 -&gt; 计入。
-28. Cargo:3282.8 -&gt; 计入。
-29. Cargo:29045.33 -&gt; 计入。
-30. Cargo:4398.0 -&gt; 计入。
-31. Cargo:8360.5 -&gt; 计入。
-32. Cargo:63468.81 -&gt; 计入。
-33. Cargo:无 (Abono有值) -&gt; 忽略。
-34. Cargo:4064.26 -&gt; 计入。
-【计算过程与比较】
-数值1（来自Comportamiento的总笔数）：30。
-数值2（来自明细统计的符合条件的总行数）：共计30笔（第1-15，17-23，26-32，34行）。
-【校验规则与决策结果】
-严格按照校验规则比较数值1和数值2是否相等：30 等于 30，两者相等。
-根据决策结果：如果相等，输出一致（无异常）。
-【hit值判定】
-根据规则：两个数值相等 → 输出“一致” → hit=false（合规/未命中）。</t>
+- 执行结果：数值2 = 30。
+校验规则（严格按照校验规则）：
+比较数值1（来自Comportamiento）和数值2（来自明细统计）是否相等。
+- 数值1 = 30
+- 数值2 = 30
+- 比较结果：相等。
+决策结果（严格按照决策结果）：
+两个数值相等，输出“一致”（无异常）。
+最终判定：
+根据规则，一致 = 合规 = hit=false。</t>
         </is>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
-          <t>数据完整，逻辑清晰，判断明确。</t>
+          <t>数据充足，逻辑清晰。明细中有效Cargos交易笔数与Comportamiento中记录的总笔数完全一致。</t>
         </is>
       </c>
     </row>
@@ -813,36 +795,39 @@
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>【执行步骤说明】
-严格按照审计规则 MSTAR_BBVA_DTL_AMT_ABONOS 的判断逻辑执行：
-Step 1: 从 'Comportamiento' 表格中提取 'Depósitos / Abonos (+)' 对应的总金额。提取结果为：164,084.03。
-Step 2: 遍历 'Detalle de Movimientos Realizados' 部分。已遍历全部34条明细。
-Step 3: [关键过滤] 累加所有 'Abonos' 列的数值。忽略 'Cargo' 列的数值。
-Step 4: 确保金额格式转换正确（处理千分位逗号）。所有金额已转换为数字格式。
-【明细数据与计算过程】
-根据Step 3，逐条列出所有 'Abonos' 列不为空的交易（按原始顺序）：
-1. 第16条：Abonos: 13637.59
-2. 第24条：Abonos: 82941.29
-3. 第25条：Abonos: 63925.15
-4. 第33条：Abonos: 3580.0
-求和计算（数值2）：
-13637.59 + 82941.29 = 96578.88
-96578.88 + 63925.15 = 160504.03
-160504.03 + 3580.0 = 164084.03
-【校验与决策】
-严格按照校验规则执行：比较数值1（来自Comportamiento）与数值2（来自明细求和）是否相等。
-数值1 (Comportamiento): 164,084.03
-数值2 (明细求和): 164,084.03
-比较结果：两个数值完全相等。
-严格按照决策结果执行：如果相等，输出一致（无异常）。
-【hit值判定】
-根据规则：两个数值相等 → 输出“一致” → hit=false（合规/未命中）。
-因此，判定结果为：hit=false。</t>
+          <t>规则ID: MSTAR_BBVA_DTL_AMT_ABONOS
+规则名称: 明细交易金额校验_入账金额
+执行步骤（严格按照判断逻辑）：
+(Step 1) 从 'Comportamiento' 表格中提取 'Depósitos / Abonos (+)'（入账）对应的总金额。
+- 提取结果：数值1 = 164,084.03
+(Step 2) 遍历 'Detalle de Movimientos Realizados' 或raw_transaction_data部分。
+- 已遍历提供的34条明细记录。
+(Step 3) [关键过滤] 累加所有 'Abonos' 列的数值。忽略 'Cargo' 列的数值。
+- 根据数据，有效 Abonos 交易数为 4 笔。
+- 明细如下（按原始顺序列出）：
+  1. 第16笔：ABONOS: 13637.59
+  2. 第24笔：ABONOS: 82941.29
+  3. 第25笔：ABONOS: 63925.15
+  4. 第33笔：ABONOS: 3580.0
+(Step 4) 确保金额格式转换正确（处理千分位逗号）。
+- 明细中金额无千分位逗号，直接累加。
+- 计算过程：13637.59 + 82941.29 + 63925.15 + 3580.00 = 164084.03
+- 计算结果：数值2 = 164,084.03
+校验规则（严格按照校验规则）：
+比较1和2是否相等。
+- 数值1 (Comportamiento) = 164,084.03
+- 数值2 (明细累加) = 164,084.03
+- 比较结果：两者完全相等。
+决策结果（严格按照决策结果）：
+如果相等，输出一致（无异常）。
+- 结论：一致。
+hit值判定：
+根据规则，两个数值相等 → 输出“一致” → hit=false（合规/未命中）。</t>
         </is>
       </c>
       <c r="F22" s="5" t="inlineStr">
         <is>
-          <t>审计完成。入账金额明细与总览数据一致，未发现异常。</t>
+          <t>入账交易笔数（4笔）少于30笔，已在evidence中列出所有用于计算的交易金额明细。</t>
         </is>
       </c>
     </row>
@@ -869,69 +854,67 @@
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t>【执行步骤说明】
-严格按照规则MSTAR_BBVA_DTL_AMT_CARGOS的判断逻辑执行：
+          <t>规则ID: MSTAR_BBVA_DTL_AMT_CARGOS
+规则名称: 明细交易金额校验_出账金额
+执行步骤（严格按照判断逻辑）：
 (Step 1) 从 'Comportamiento' 表格中提取 'Retiros / Cargos (-)'（出账）对应的总金额。
-执行结果：从提供的Comportamiento数据中，提取到'Retiros / Cargos (-): 30  200,879.96'，因此数值1 = 200879.96。
-(Step 2) 遍历 'Detalle de Movimientos Realizados' 部分。
-执行结果：遍历了提供的34条明细记录。
+执行结果：在数据中，'Comportamiento' 部分明确列出 'Retiros / Cargos (-): 30  200,879.96'。因此，数值1（来自Comportamiento）为 200879.96。
+(Step 2) 遍历 'Detalle de Movimientos Realizados' 或raw_transaction_data部分。
+执行结果：已遍历提供的34条明细交易记录。
 (Step 3) [关键过滤] 累加所有 'Cargos' 列的数值。忽略 'Abono' 列的数值。
-执行结果：按照原始顺序，逐条提取并累加Cargos列不为空的数值。
+执行结果：根据数据，有效 Cargos (出账) 的交易数为 30 笔。按照规则要求，累加所有 'Cargos' 列的非空数值。由于交易笔数（30笔）少于30笔，根据要求列出所有用于计算的交易金额明细。明细如下（按原始顺序）：
+1. 1676.47
+2. 16182.0
+3. 1373.54
+4. 8725.74
+5. 1503.93
+6. 15.0
+7. 2.4
+8. 1639.2
+9. 865.0
+10. 4400.0
+11. 1940.11
+12. 1562.56
+13. 2083.0
+14. 27970.0
+15. 1432.85
+16. 0.0 (此行CARGOS为“无”，按0处理)
+17. 1460.56
+18. 7787.67
+19. 843.53
+20. 1457.17
+21. 260.0
+22. 1485.73
+23. 1063.72
+24. 0.0 (此行CARGOS为“无”，按0处理)
+25. 0.0 (此行CARGOS为“无”，按0处理)
+26. 1392.58
+27. 1137.5
+28. 3282.8
+29. 29045.33
+30. 4398.0
+31. 8360.5
+32. 63468.81
+33. 0.0 (此行CARGOS为“无”，按0处理)
+34. 4064.26
 (Step 4) 确保金额格式转换正确（处理千分位逗号）。
-执行结果：明细中的Cargos金额均为数字格式，无需转换。
-【明细数据与计算过程】
-以下是所有Cargos列不为空的交易明细（按原始顺序列出）：
-1. Cargo: 1676.47
-2. Cargo: 16182.0
-3. Cargo: 1373.54
-4. Cargo: 8725.74
-5. Cargo: 1503.93
-6. Cargo: 15.0
-7. Cargo: 2.4
-8. Cargo: 1639.2
-9. Cargo: 865.0
-10. Cargo: 4400.0
-11. Cargo: 1940.11
-12. Cargo: 1562.56
-13. Cargo: 2083.0
-14. Cargo: 27970.0
-15. Cargo: 1432.85
-16. Cargo: 无 (此条为Abono，忽略)
-17. Cargo: 1460.56
-18. Cargo: 7787.67
-19. Cargo: 843.53
-20. Cargo: 1457.17
-21. Cargo: 260.0
-22. Cargo: 1485.73
-23. Cargo: 1063.72
-24. Cargo: 无 (此条为Abono，忽略)
-25. Cargo: 无 (此条为Abono，忽略)
-26. Cargo: 1392.58
-27. Cargo: 1137.5
-28. Cargo: 3282.8
-29. Cargo: 29045.33
-30. Cargo: 4398.0
-31. Cargo: 8360.5
-32. Cargo: 63468.81
-33. Cargo: 无 (此条为Abono，忽略)
-34. Cargo: 4064.26
-求和计算：
-1676.47 + 16182.0 + 1373.54 + 8725.74 + 1503.93 + 15.0 + 2.4 + 1639.2 + 865.0 + 4400.0 + 1940.11 + 1562.56 + 2083.0 + 27970.0 + 1432.85 + 1460.56 + 7787.67 + 843.53 + 1457.17 + 260.0 + 1485.73 + 1063.72 + 1392.58 + 1137.5 + 3282.8 + 29045.33 + 4398.0 + 8360.5 + 63468.81 + 4064.26 = 200879.96
-因此，数值2（明细Cargos累加和）= 200879.96。
-【校验规则执行与比较结果】
-严格按照校验规则执行：比较数值1和数值2是否相等。
-数值1 (来自Comportamiento): 200879.96
-数值2 (来自明细累加): 200879.96
+执行结果：明细中金额均为数字格式，无需处理千分位逗号。对上述30个数值求和。
+计算过程：
+手动求和验证：1676.47 + 16182.0 + 1373.54 + 8725.74 + 1503.93 + 15.0 + 2.4 + 1639.2 + 865.0 + 4400.0 + 1940.11 + 1562.56 + 2083.0 + 27970.0 + 1432.85 + 0.0 + 1460.56 + 7787.67 + 843.53 + 1457.17 + 260.0 + 1485.73 + 1063.72 + 0.0 + 0.0 + 1392.58 + 1137.5 + 3282.8 + 29045.33 + 4398.0 + 8360.5 + 63468.81 + 0.0 + 4064.26 = 200879.96
+求和结果与数据中提供的参考值 'total_importe_cargos: 200879.96' 一致。因此，数值2（来自明细累加）为 200879.96。
+校验规则（严格按照校验规则）：
+比较数值1（200879.96）与数值2（200879.96）是否相等。
 比较结果：两个数值完全相等。
-【决策结果与hit判定】
-严格按照决策结果执行：如果相等，输出一致（无异常）。
-因此，输出结果为：一致。
-根据hit值判断逻辑：两个数值相等 → 输出“一致” → hit=false（合规/未命中）。</t>
+决策结果（严格按照决策结果）：
+如果相等，输出一致（无异常）。
+因此，判定结果为：一致。
+hit值判定（严格按照逻辑）：
+因为两个数值相等，输出“一致”，所以 hit=false（合规/未命中）。</t>
         </is>
       </c>
       <c r="F23" s="5" t="inlineStr">
         <is>
-          <t>审计完成。明细交易中Cargos金额总和与Comportamiento中报告的出账总金额完全一致，未发现异常。</t>
+          <t>数据完整，计算过程清晰。明细交易金额总和与Comportamiento中报告的出账总金额完全一致。</t>
         </is>
       </c>
     </row>
@@ -960,151 +943,22 @@
         <is>
           <t>规则ID: MSTAR_BBVA_DTL_AMT_SINGLE
 规则名称: 明细交易金额校验_单笔金额
-执行步骤说明：
-1. 保持交易列表的原始顺序：已严格按照提供的34条交易明细的原始顺序进行分析。
-2. 确定初始锚点(Balance_1)：检查第一行交易（索引1）。该行有'Operacion'值（160868.01），因此将其记为Balance_1 = 160868.01。计算起点从下一行（索引2）开始。
-3. 寻找下一个锚点(Balance_2)：从索引2开始向下遍历，寻找下一个有'OPERACIÓN'或'SALDO OPERACIÓN'值的行。
-4. 区间核算：累加Balance_1（不含）到Balance_2（含）之间的所有'CARGOS'和'ABONOS'，并应用验证公式。
-5. 迭代：将Balance_2设为新的Balance_1，重复步骤3-4直到末尾。
-具体执行过程：
-轮次1：
-- Balance_1: 第1行，Operacion = 160868.01
-- 向下遍历，找到下一个锚点：第2行有Operacion值（144686.01），记为Balance_2 = 144686.01。
-- 区间：第1行（不含）到第2行（含）。
-- 区间内交易：仅第2行。
-- Sum(Cargos) = 16182.0, Sum(Abonos) = 0。
-- 计算：result = Balance_1 - Sum(Cargos) + Sum(Abonos) - Balance_2 = 160868.01 - 16182.0 + 0 - 144686.01 = 0.0。
-- 结果：result = 0.0。
-轮次2：
-- 新的Balance_1 = 144686.01（来自上一轮的Balance_2）。
-- 向下遍历，找到下一个锚点：第4行有Operacion值（134586.73），记为Balance_2 = 134586.73。
-- 区间：第2行（不含）到第4行（含）。
-- 区间内交易：第3行、第4行。
-- Sum(Cargos) = 1373.54 + 8725.74 = 10099.28, Sum(Abonos) = 0。
-- 计算：result = 144686.01 - 10099.28 + 0 - 134586.73 = 0.0。
-- 结果：result = 0.0。
-轮次3：
-- 新的Balance_1 = 134586.73。
-- 向下遍历，找到下一个锚点：第5行有Operacion值（133082.8），记为Balance_2 = 133082.8。
-- 区间：第4行（不含）到第5行（含）。
-- 区间内交易：仅第5行。
-- Sum(Cargos) = 1503.93, Sum(Abonos) = 0。
-- 计算：result = 134586.73 - 1503.93 + 0 - 133082.8 = 0.0。
-- 结果：result = 0.0。
-轮次4：
-- 新的Balance_1 = 133082.8。
-- 向下遍历，找到下一个锚点：第7行有Operacion值（133065.4），记为Balance_2 = 133065.4。
-- 区间：第5行（不含）到第7行（含）。
-- 区间内交易：第6行、第7行。
-- Sum(Cargos) = 15.0 + 2.4 = 17.4, Sum(Abonos) = 0。
-- 计算：result = 133082.8 - 17.4 + 0 - 133065.4 = 0.0。
-- 结果：result = 0.0。
-轮次5：
-- 新的Balance_1 = 133065.4。
-- 向下遍历，找到下一个锚点：第9行有Operacion值（130561.2），记为Balance_2 = 130561.2。
-- 区间：第7行（不含）到第9行（含）。
-- 区间内交易：第8行、第9行。
-- Sum(Cargos) = 1639.2 + 865.0 = 2504.2, Sum(Abonos) = 0。
-- 计算：result = 133065.4 - 2504.2 + 0 - 130561.2 = 0.0。
-- 结果：result = 0.0。
-轮次6：
-- 新的Balance_1 = 130561.2。
-- 向下遍历，找到下一个锚点：第11行有Operacion值（124221.09），记为Balance_2 = 124221.09。
-- 区间：第9行（不含）到第11行（含）。
-- 区间内交易：第10行、第11行。
-- Sum(Cargos) = 4400.0 + 1940.11 = 6340.11, Sum(Abonos) = 0。
-- 计算：result = 130561.2 - 6340.11 + 0 - 124221.09 = 0.0。
-- 结果：result = 0.0。
-轮次7：
-- 新的Balance_1 = 124221.09。
-- 向下遍历，找到下一个锚点：第13行有Operacion值（120575.53），记为Balance_2 = 120575.53。
-- 区间：第11行（不含）到第13行（含）。
-- 区间内交易：第12行、第13行。
-- Sum(Cargos) = 1562.56 + 2083.0 = 3645.56, Sum(Abonos) = 0。
-- 计算：result = 124221.09 - 3645.56 + 0 - 120575.53 = 0.0。
-- 结果：result = 0.0。
-轮次8：
-- 新的Balance_1 = 120575.53。
-- 向下遍历，找到下一个锚点：第15行有Operacion值（91172.68），记为Balance_2 = 91172.68。
-- 区间：第13行（不含）到第15行（含）。
-- 区间内交易：第14行、第15行。
-- Sum(Cargos) = 27970.0 + 1432.85 = 29402.85, Sum(Abonos) = 0。
-- 计算：result = 120575.53 - 29402.85 + 0 - 91172.68 = 0.0。
-- 结果：result = 0.0。
-轮次9：
-- 新的Balance_1 = 91172.68。
-- 向下遍历，找到下一个锚点：第16行有Operacion值（104810.27），记为Balance_2 = 104810.27。
-- 区间：第15行（不含）到第16行（含）。
-- 区间内交易：仅第16行。
-- Sum(Cargos) = 0, Sum(Abonos) = 13637.59。
-- 计算：result = 91172.68 - 0 + 13637.59 - 104810.27 = 0.0。
-- 结果：result = 0.0。
-轮次10：
-- 新的Balance_1 = 104810.27。
-- 向下遍历，找到下一个锚点：第17行有Operacion值（103349.71），记为Balance_2 = 103349.71。
-- 区间：第16行（不含）到第17行（含）。
-- 区间内交易：仅第17行。
-- Sum(Cargos) = 1460.56, Sum(Abonos) = 0。
-- 计算：result = 104810.27 - 1460.56 + 0 - 103349.71 = 0.0。
-- 结果：result = 0.0。
-轮次11：
-- 新的Balance_1 = 103349.71。
-- 向下遍历，找到下一个锚点：第18行有Operacion值（95562.04），记为Balance_2 = 95562.04。
-- 区间：第17行（不含）到第18行（含）。
-- 区间内交易：仅第18行。
-- Sum(Cargos) = 7787.67, Sum(Abonos) = 0。
-- 计算：result = 103349.71 - 7787.67 + 0 - 95562.04 = 0.0。
-- 结果：result = 0.0。
-轮次12：
-- 新的Balance_1 = 95562.04。
-- 向下遍历，找到下一个锚点：第21行有Operacion值（93001.34），记为Balance_2 = 93001.34。
-- 区间：第18行（不含）到第21行（含）。
-- 区间内交易：第19行、第20行、第21行。
-- Sum(Cargos) = 843.53 + 1457.17 + 260.0 = 2560.7, Sum(Abonos) = 0。
-- 计算：result = 95562.04 - 2560.7 + 0 - 93001.34 = 0.0。
-- 结果：result = 0.0。
-轮次13：
-- 新的Balance_1 = 93001.34。
-- 向下遍历，找到下一个锚点：第23行有Operacion值（90451.89），记为Balance_2 = 90451.89。
-- 区间：第21行（不含）到第23行（含）。
-- 区间内交易：第22行、第23行。
-- Sum(Cargos) = 1485.73 + 1063.72 = 2549.45, Sum(Abonos) = 0。
-- 计算：result = 93001.34 - 2549.45 + 0 - 90451.89 = 0.0。
-- 结果：result = 0.0。
-轮次14：
-- 新的Balance_1 = 90451.89。
-- 向下遍历，找到下一个锚点：第27行有Operacion值（234788.25），记为Balance_2 = 234788.25。
-- 区间：第23行（不含）到第27行（含）。
-- 区间内交易：第24行、第25行、第26行、第27行。
-- Sum(Cargos) = 0 + 0 + 1392.58 + 1137.5 = 2530.08, Sum(Abonos) = 82941.29 + 63925.15 = 146866.44。
-- 计算：result = 90451.89 - 2530.08 + 146866.44 - 234788.25 = 0.0。
-- 结果：result = 0.0。
-轮次15：
-- 新的Balance_1 = 234788.25。
-- 向下遍历，找到下一个锚点：第31行有Operacion值（189701.62），记为Balance_2 = 189701.62。
-- 区间：第27行（不含）到第31行（含）。
-- 区间内交易：第28行、第29行、第30行、第31行。
-- Sum(Cargos) = 3282.8 + 29045.33 + 4398.0 + 8360.5 = 45086.63, Sum(Abonos) = 0。
-- 计算：result = 234788.25 - 45086.63 + 0 - 189701.62 = 0.0。
-- 结果：result = 0.0。
-轮次16：
-- 新的Balance_1 = 189701.62。
-- 向下遍历，找到下一个锚点：第34行有Operacion值（125748.55），记为Balance_2 = 125748.55。
-- 区间：第31行（不含）到第34行（含）。
-- 区间内交易：第32行、第33行、第34行。
-- Sum(Cargos) = 63468.81 + 0 + 4064.26 = 67533.07, Sum(Abonos) = 3580.0。
-- 计算：result = 189701.62 - 67533.07 + 3580.0 - 125748.55 = 0.0。
-- 结果：result = 0.0。
-校验规则执行：记录每一个轮次中步骤4的result值，判断是否所有的result都为0。
-检查结果：所有16个轮次的result值均为0.0。
-决策结果执行：如果每一个轮次中result值都为0，输出一致（无异常）。
-结论：所有区间核算结果均为0，明细交易金额校验通过。
-最终判定：一致（无异常）。</t>
+执行步骤与结果：
+1. 保持交易列表原始顺序：已严格按照提供的34笔交易明细的原始顺序进行分析。
+2. 确定初始锚点(Balance_1)：根据规则，检查第一行交易。第1行有'OPERACIÓN'值160868.01，因此将其记为Balance_1 = 160868.01。计算起点从下一行（第2行）开始。
+3. 寻找下一个锚点(Balance_2)并迭代核算：按照规则步骤，从Balance_1开始向下遍历，找到下一个有'OPERACIÓN'或'SALDO OPERACIÓN'的行作为Balance_2，然后计算区间内的Cargos和Abonos总和，并验证公式 result = Balance_1 - Sum(Cargos) + Sum(Abonos) - Balance_2。此过程迭代进行直至末尾。
+根据系统提供的内部计算分析（Balance Check Analysis），共进行了16轮核算：
+- Round 1 至 Round 16 的 result (Diff) 值均为 0.00。
+- 系统结论为：所有区间校验通过 (All Passed). result=0.0。
+校验规则执行：记录每一个轮次中步骤4的result值，并检查是否所有result都为0。
+决策结果：由于所有轮次的result值均为0，根据规则，输出一致（无异常）。
+关键数据参考：总笔数34笔，有效Cargos交易数30笔，有效Abonos交易数4笔，与内部核算的区间交易数一致。
+结论：所有区间的余额连续性核算结果均为0，明细交易金额校验通过。</t>
         </is>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>严格按照规则要求的判断逻辑、校验规则和决策结果执行。所有16个核算区间的result值均为0，符合规则要求的一致（无异常）条件。</t>
+          <t>系统提供的内部计算分析（Balance Check Analysis）已详细展示了16轮核算过程，且每一轮的result均为0.00，与规则要求的校验逻辑完全一致。因此判定为一致（hit=false）。</t>
         </is>
       </c>
     </row>
@@ -1131,52 +985,53 @@
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>执行步骤1：从提供的数据中获取模糊匹配包含'Periodo'的信息。找到'Periodo: DEL 01/07/2025 AL 31/07/2025'。因此，步骤1的日期区间为[DEL 01/07/2025, AL 31/07/2025]。
-执行步骤2：取'Detalle de Movimientos Realizados'中所有的OPER和LIQ日期。所有日期均为'DD/MMM'格式，结合上下文（Periodo为2025年7月），补充年份为2025。所有日期列表如下：
-1. Oper:03/JUL/2025, Liq:01/JUL/2025
-2. Oper:05/JUL/2025, Liq:07/JUL/2025
-3. Oper:07/JUL/2025, Liq:04/JUL/2025
-4. Oper:07/JUL/2025, Liq:07/JUL/2025
-5. Oper:08/JUL/2025, Liq:07/JUL/2025
-6. Oper:09/JUL/2025, Liq:09/JUL/2025
-7. Oper:09/JUL/2025, Liq:09/JUL/2025
-8. Oper:10/JUL/2025, Liq:10/JUL/2025
-9. Oper:10/JUL/2025, Liq:10/JUL/2025
-10. Oper:11/JUL/2025, Liq:10/JUL/2025
-11. Oper:11/JUL/2025, Liq:10/JUL/2025
-12. Oper:14/JUL/2025, Liq:11/JUL/2025
-13. Oper:14/JUL/2025, Liq:11/JUL/2025
-14. Oper:15/JUL/2025, Liq:15/JUL/2025
-15. Oper:15/JUL/2025, Liq:14/JUL/2025
-16. Oper:18/JUL/2025, Liq:18/JUL/2025
-17. Oper:21/JUL/2025, Liq:18/JUL/2025
-18. Oper:22/JUL/2025, Liq:21/JUL/2025
-19. Oper:23/JUL/2025, Liq:23/JUL/2025
-20. Oper:23/JUL/2025, Liq:22/JUL/2025
-21. Oper:23/JUL/2025, Liq:22/JUL/2025
-22. Oper:28/JUL/2025, Liq:25/JUL/2025
-23. Oper:28/JUL/2025, Liq:25/JUL/2025
-24. Oper:29/JUL/2025, Liq:29/JUL/2025
-25. Oper:29/JUL/2025, Liq:29/JUL/2025
-26. Oper:29/JUL/2025, Liq:28/JUL/2025
-27. Oper:29/JUL/2025, Liq:28/JUL/2025
-28. Oper:30/JUL/2025, Liq:30/JUL/2025
-29. Oper:30/JUL/2025, Liq:30/JUL/2025
-30. Oper:30/JUL/2025, Liq:28/JUL/2025
-31. Oper:30/JUL/2025, Liq:28/JUL/2025
-32. Oper:31/JUL/2025, Liq:31/JUL/2025
-33. Oper:31/JUL/2025, Liq:31/JUL/2025
-34. Oper:31/JUL/2025, Liq:31/JUL/2025
-从所有日期中找出最小日期(min_date)和最大日期(max_date)。最小日期为01/JUL/2025（来自第1笔交易的Liq）。最大日期为31/JUL/2025（来自第32、33、34笔交易的Oper和Liq）。
-执行校验规则：判断步骤2中的min_date(01/07/2025)和max_date(31/07/2025)是否在步骤1的日期区间[DEL 01/07/2025, AL 31/07/2025]范围内。
-比较结果：min_date(01/07/2025)等于区间起始日(01/07/2025)，max_date(31/07/2025)等于区间结束日(31/07/2025)。因此，min_date和max_date均在步骤1的日期区间范围内。
-执行决策结果：根据规则，如果min_date和max_date在区间范围内，输出“一致（无异常）”。
-结论：交易明细中的最小日期和最大日期与账单周期完全一致，无异常。</t>
+          <t>执行步骤1：从提供的数据中获取模糊匹配包含'Periodo'的信息。找到内容：'Periodo: DEL 01/07/2025 AL 31/07/2025'。解析后得到步骤1的日期区间为：[DEL 01/07/2025, AL 31/07/2025]。
+执行步骤2：从'Detalle de Movimientos Realizados'中提取所有交易的OPER和LIQ日期。共34笔交易。计算所有日期中的最小日期(min_date)和最大日期(max_date)。
+日期明细（按原始顺序）：
+1. Oper:03/JUL, Liq:01/JUL
+2. Oper:05/JUL, Liq:07/JUL
+3. Oper:07/JUL, Liq:04/JUL
+4. Oper:07/JUL, Liq:07/JUL
+5. Oper:08/JUL, Liq:07/JUL
+6. Oper:09/JUL, Liq:09/JUL
+7. Oper:09/JUL, Liq:09/JUL
+8. Oper:10/JUL, Liq:10/JUL
+9. Oper:10/JUL, Liq:10/JUL
+10. Oper:11/JUL, Liq:10/JUL
+11. Oper:11/JUL, Liq:10/JUL
+12. Oper:14/JUL, Liq:11/JUL
+13. Oper:14/JUL, Liq:11/JUL
+14. Oper:15/JUL, Liq:15/JUL
+15. Oper:15/JUL, Liq:14/JUL
+16. Oper:18/JUL, Liq:18/JUL
+17. Oper:21/JUL, Liq:18/JUL
+18. Oper:22/JUL, Liq:21/JUL
+19. Oper:23/JUL, Liq:23/JUL
+20. Oper:23/JUL, Liq:22/JUL
+21. Oper:23/JUL, Liq:22/JUL
+22. Oper:28/JUL, Liq:25/JUL
+23. Oper:28/JUL, Liq:25/JUL
+24. Oper:29/JUL, Liq:29/JUL
+25. Oper:29/JUL, Liq:29/JUL
+26. Oper:29/JUL, Liq:28/JUL
+27. Oper:29/JUL, Liq:28/JUL
+28. Oper:30/JUL, Liq:30/JUL
+29. Oper:30/JUL, Liq:30/JUL
+30. Oper:30/JUL, Liq:28/JUL
+31. Oper:30/JUL, Liq:28/JUL
+32. Oper:31/JUL, Liq:31/JUL
+33. Oper:31/JUL, Liq:31/JUL
+34. Oper:31/JUL, Liq:31/JUL
+所有日期均属于2025年7月。最小日期(min_date)为：01/JUL/2025（来自第1笔交易的Liq日期）。最大日期(max_date)为：31/JUL/2025（来自第32、33、34笔交易的Oper和Liq日期）。
+执行校验规则：判断步骤2中的min_date(01/07/2025)和max_date(31/07/2025)是否在步骤1的日期区间[01/07/2025, 31/07/2025]范围内。
+比较结果：min_date(01/07/2025)等于区间起始日(01/07/2025)，在区间内。max_date(31/07/2025)等于区间结束日(31/07/2025)，在区间内。
+决策结果：min_date和max_date均在步骤1的日期区间范围内，因此输出“一致（无异常）”。
+根据决策结果，规则未命中，hit=false。</t>
         </is>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>所有日期均基于'Periodo'信息补充了年份2025。</t>
+          <t>所有交易日期均在2025年7月内，与Periodo声明的区间完全一致。</t>
         </is>
       </c>
     </row>
@@ -1203,50 +1058,52 @@
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>步骤1执行结果：已取出Detalle de Movimientos Realizados中所有34条记录的DESCRIPCION字段值。
-步骤2执行结果：已将上述所有DESCRIPCION值翻译为中文。翻译结果列表如下：
+          <t>步骤1执行结果：已从'Detalle de Movimientos Realizados'中提取所有34笔交易的'DESCRIPCION'（描述）字段。
+步骤2执行结果：已将34条描述翻译为中文。翻译结果如下（按原始顺序列出）：
 1. SERVICIOSMODERNOSJILOT -&gt; 现代服务JILOT
 2. PAGO CUENTA DE TERCERO 0060782423 BNET 0460107182 Silicones -&gt; 向第三方账户付款 0060782423 BNET 0460107182 硅胶
 3. SERV DEL CANTABRICO -&gt; 坎塔布里亚服务
-4. SPEI ENVIADO SANTANDER 0033484832 014 0707250Herramientas 00014180655107788777 BNET01002507070033484832 HERRAMIENTAS JK -&gt; SPEI发送至桑坦德银行 0033484832 014 0707250工具 00014180655107788777 BNET01002507070033484832 JK工具
+4. SPEI ENVIADO SANTANDER 0033484832 014 0707250Herramientas 00014180655107788777 BNET01002507070033484832 HERRAMIENTAS JK -&gt; SPEI发送至桑坦德银行 0033484832 014 0707250工具 00014180655107788777 BNET01002507070033484832 工具 JK
 5. BP ORQUIDEA -&gt; BP ORQUIDEA
-6. SERV BANCA INTERNET OPS SERV BCA IN -&gt; 网上银行服务操作
-7. IVA COM SERV BCA INTERNET IVA COM SERV BC -&gt; 网上银行服务增值税
+6. SERV BANCA INTERNET OPS SERV BCA IN -&gt; 网上银行服务操作 网上银行服务
+7. IVA COM SERV BCA INTERNET IVA COM SERV BC -&gt; 网上银行服务增值税 网上银行服务增值税
 8. PAGO CUENTA DE TERCERO 0097117530 BNET 0133529169 Pago diferen de fa -&gt; 向第三方账户付款 0097117530 BNET 0133529169 支付差额
 9. CABLE Y COMUNICACION17350 CCM010816UK4 Su Pago Gracias 3237419 -&gt; 电缆与通信17350 CCM010816UK4 感谢您的付款 3237419
-10. MERPAGO*NOHEMIIVONNEM -&gt; 商户支付*NOHEMIIVONNEM
+10. MERPAGO*NOHEMIIVONNEM -&gt; MERPAGO*NOHEMIIVONNEM
 11. SERVICIO PERIBAZ -&gt; PERIBAZ服务
 12. BP ORQUIDEA -&gt; BP ORQUIDEA
 13. HOME DEPOT -&gt; 家得宝
-14. CHEQUE PAGADO NO. -&gt; 支票已支付 编号。
-15. GAS EL ONCE CUAMATLA -&gt; 埃尔翁塞CUAMATLA加油站
+14. CHEQUE PAGADO NO. -&gt; 已付支票号。
+15. GAS EL ONCE CUAMATLA -&gt; 十一区CUAMATLA天然气
 16. PAGO CUENTA DE TERCERO 0077413032 BNET 0107419155 EDWIN ANTONIO -&gt; 向第三方账户付款 0077413032 BNET 0107419155 EDWIN ANTONIO
-17. GASOL SERV COMBUSA -&gt; COMBUSA加油站服务
+17. GASOL SERV COMBUSA -&gt; 汽油服务COMBUSA
 18. MERCADO PAGO -&gt; 市场支付
 19. AT&amp;T COMUNICACIONES 21433 CNM980114PI2 CARGO RECURRENTE ATT -&gt; AT&amp;T通信 21433 CNM980114PI2 定期收费 ATT
-20. GASOL BP SAT SMA 2 -&gt; BP SAT SMA 2加油站
+20. GASOL BP SAT SMA 2 -&gt; 汽油 BP SAT SMA 2
 21. SERV DEL CANTABRICO -&gt; 坎塔布里亚服务
-22. GAS EL ONCE CUAMATLA -&gt; 埃尔翁塞CUAMATLA加油站
+22. GAS EL ONCE CUAMATLA -&gt; 十一区CUAMATLA天然气
 23. SERV DEL CANTABRICO -&gt; 坎塔布里亚服务
-24. SPEI RECIBIDOSCOTIABANK 0133969035 044 0290725folio fiscal 09834FCA1873 00044180001059308175 2025072940044B36L0000389741682 ZAMUDIO MARTINEZ VICTOR HUGO -&gt; SPEI接收自丰业银行 0133969035 044 0290725税务凭证号 09834FCA1873 00044180001059308175 2025072940044B36L0000389741682 ZAMUDIO MARTINEZ VICTOR HUGO
-25. SPEI RECIBIDOSCOTIABANK 0133977330 044 0290725folio fiscal C28F886E7A59 00044180001059308175 2025072940044B36L0000389742071 ZAMUDIO MARTINEZ VICTOR HUGO -&gt; SPEI接收自丰业银行 0133977330 044 0290725税务凭证号 C28F886E7A59 00044180001059308175 2025072940044B36L0000389742071 ZAMUDIO MARTINEZ VICTOR HUGO
-26. GAS EL ONCE CUAMATLA -&gt; 埃尔翁塞CUAMATLA加油站
+24. SPEI RECIBIDOSCOTIABANK 0133969035 044 0290725folio fiscal 09834FCA1873 00044180001059308175 2025072940044B36L0000389741682 ZAMUDIO MARTINEZ VICTOR HUGO -&gt; SPEI接收自丰业银行 0133969035 044 0290725税务凭证 09834FCA1873 00044180001059308175 2025072940044B36L0000389741682 ZAMUDIO MARTINEZ VICTOR HUGO
+25. SPEI RECIBIDOSCOTIABANK 0133977330 044 0290725folio fiscal C28F886E7A59 00044180001059308175 2025072940044B36L0000389741682 ZAMUDIO MARTINEZ VICTOR HUGO -&gt; SPEI接收自丰业银行 0133977330 044 0290725税务凭证 C28F886E7A59 00044180001059308175 2025072940044B36L0000389741682 ZAMUDIO MARTINEZ VICTOR HUGO
+26. GAS EL ONCE CUAMATLA -&gt; 十一区CUAMATLA天然气
 27. LIVERPOOL SATELITE -&gt; 利物浦卫星店
 28. SPEI ENVIADO BANAMEX 0039320378 002 3107250Honorarios cp 00002180095683836100 BNET01002507310039320378 ERIKA FERNANDEZ CASILLAS -&gt; SPEI发送至墨西哥国民银行 0039320378 002 3107250费用 cp 00002180095683836100 BNET01002507310039320378 ERIKA FERNANDEZ CASILLAS
 29. PAGO CUENTA DE TERCERO 0057618647 BNET 0444065476 Herramientas edw -&gt; 向第三方账户付款 0057618647 BNET 0444065476 工具 edw
-30. S218 TM SATELITE NAUC -&gt; S218 TM NAUC卫星店
-31. AUTOZONE 7188 -&gt; 汽车地带 7188
+30. S218 TM SATELITE NAUC -&gt; S218 TM 卫星 NAUC
+31. AUTOZONE 7188 -&gt; AUTOZONE 7188
 32. PAGO CUENTA DE TERCERO 0014028270 BNET 0197588054 Tornifac0415250 -&gt; 向第三方账户付款 0014028270 BNET 0197588054 Tornifac0415250
 33. DEPOSITO EN EFECTIVO 2051DEPOSITO -&gt; 现金存款 2051存款
-34. SPEI ENVIADO SANTANDER 0039712045 014 3107250Guantes 00014180655107788777 BNET01002507310039712045 HERRAMIENTAS JK -&gt; SPEI发送至桑坦德银行 0039712045 014 3107250手套 00014180655107788777 BNET01002507310039712045 JK工具
-校验规则执行结果：将上述34条中文描述与规则中的高风险职业关键词列表逐一比对。关键词列表为：现金密集型业务；小型零售商和街头摊贩（如露天市场摊贩）；夜总会；酒吧；娱乐场所经营者；灰色；非法行业关联者；未注册或非正式的安保服务提供商；涉嫌贷款翻转或文件造假的汽车贷款经纪人或中介；可能与贩毒或有组织犯罪相关的幌子企业（如虚假奢侈品转售店、空壳运输公司）；欺诈高发行业；不受监管的汽车经销商或中介，尤其是推广 “零首付” 优惠的或收入不规律或无法核实的自雇人士；在汽车金融行业工作的个人；独立或未注册的汽车维修店员工。
-经比对，所有34条中文描述均未命中上述任意关键词。描述内容主要为：各类服务支付（现代服务、坎塔布里亚服务、PERIBAZ服务）、向第三方账户付款、SPEI转账、加油站消费（BP、埃尔翁塞、COMBUSA）、商户支付（家得宝、利物浦、汽车地带、S218 TM）、网上银行服务费、通信费（电缆、AT&amp;T）、支票支付、现金存款等。这些描述与零售、餐饮、工具采购、个人转账、生活缴费等正常商业或个人活动相关，未发现与高风险职业相关的明确描述。
-决策结果：根据规则，全部描述都未命中关键词，因此输出“正常”。</t>
+34. SPEI ENVIADO SANTANDER 0039712045 014 3107250Guantes 00014180655107788777 BNET01002507310039712045 HERRAMIENTAS JK -&gt; SPEI发送至桑坦德银行 0039712045 014 3107250手套 00014180655107788777 BNET01002507310039712045 工具 JK
+校验规则执行结果：逐条检查上述34条中文描述，判断是否命中以下任意关键词：
+现金密集型业务；小型零售商和街头摊贩（如露天市场摊贩）；夜总会；酒吧；娱乐场所经营者；灰色；非法行业关联者；未注册或非正式的安保服务提供商；涉嫌贷款翻转或文件造假的汽车贷款经纪人或中介；可能与贩毒或有组织犯罪相关的幌子企业（如虚假奢侈品转售店、空壳运输公司）；欺诈高发行业；不受监管的汽车经销商或中介，尤其是推广 “零首付” 优惠的或收入不规律或无法核实的自雇人士；在汽车金融行业工作的个人；独立或未注册的汽车维修店员工。
+检查结论：所有34条中文描述均未包含上述任何关键词。交易描述主要为：服务提供商（如SERVICIOSMODERNOSJILOT、SERV DEL CANTABRICO）、第三方转账（PAGO CUENTA DE TERCERO）、SPEI电子转账、商户消费（如HOME DEPOT、LIVERPOOL、AUTOZONE）、公用事业缴费（如GAS、CABLE）、银行服务费、现金存款等。未发现与高风险职业相关的描述。
+决策结果执行：根据规则，全部都没命中，输出正常。
+因此，hit判定为false。</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>审计规则MSTAR_BBVA_DTL_ANAL_RISK_OCC（交易明细分析_高风险职业）执行完毕。已严格按照判断逻辑执行了步骤1（提取所有DESCRIPCION值）和步骤2（翻译成中文），并严格按照校验规则将翻译结果与高风险职业关键词列表进行了比对。所有交易描述均未命中关键词，判定为正常。</t>
+          <t>已严格按照判断逻辑、校验规则和决策结果执行。所有交易描述均未命中高风险职业关键词。</t>
         </is>
       </c>
     </row>
@@ -1273,27 +1130,35 @@
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
-          <t>步骤1：已获取Detalle de Movimientos Realizados中所有34条记录，并按OPER日期升序排序（原始数据已按此顺序提供）。
-步骤2：统计所有记录中ABONOS取值不为空的总记录数total_cargo_cnt。经逐条检查，ABONOS列不为空的记录有：第16条（Abono:13637.59）、第24条（Abono:82941.29）、第25条（Abono:63925.15）、第33条（Abono:3580.0）。因此，total_cargo_cnt = 4。
-步骤3：从第一条记录开始，查找ABONOS值不为空的行作为起始行。第一条ABONOS不为空的记录是第16条。获取其ABONOS值ABONOS1 = 13637.59，OPER日期OPER1 = 18/JUL。
-步骤4：从第16条记录开始往下逐行查找，寻找离起始行最近的且CARGOS列的值和ABONOS1（13637.59）相同的记录。检查第17至34条记录的CARGOS值，未发现任何CARGOS值为13637.59的记录。因此，无法找到匹配的记录，无法获取OPER2，本轮次步骤5无法计算result。
-步骤3（第二轮）：以上一轮起始行（第16条）的下一条记录（第17条）作为新的起始行。查找ABONOS值不为空的行。下一条ABONOS不为空的记录是第24条。获取其ABONOS值ABONOS1 = 82941.29，OPER日期OPER1 = 29/JUL。
-步骤4（第二轮）：从第24条记录开始往下逐行查找，寻找离起始行最近的且CARGOS列的值和ABONOS1（82941.29）相同的记录。检查第25至34条记录的CARGOS值，未发现任何CARGOS值为82941.29的记录。因此，无法找到匹配的记录，无法获取OPER2，本轮次步骤5无法计算result。
-步骤3（第三轮）：以上一轮起始行（第24条）的下一条记录（第25条）作为新的起始行。查找ABONOS值不为空的行。下一条ABONOS不为空的记录是第25条。获取其ABONOS值ABONOS1 = 63925.15，OPER日期OPER1 = 29/JUL。
-步骤4（第三轮）：从第25条记录开始往下逐行查找，寻找离起始行最近的且CARGOS列的值和ABONOS1（63925.15）相同的记录。检查第26至34条记录的CARGOS值，未发现任何CARGOS值为63925.15的记录。因此，无法找到匹配的记录，无法获取OPER2，本轮次步骤5无法计算result。
-步骤3（第四轮）：以上一轮起始行（第25条）的下一条记录（第26条）作为新的起始行。查找ABONOS值不为空的行。下一条ABONOS不为空的记录是第33条。获取其ABONOS值ABONOS1 = 3580.0，OPER日期OPER1 = 31/JUL。
-步骤4（第四轮）：从第33条记录开始往下逐行查找，寻找离起始行最近的且CARGOS列的值和ABONOS1（3580.0）相同的记录。检查第34条记录的CARGOS值（4064.26），不匹配。之后无更多记录。因此，无法找到匹配的记录，无法获取OPER2，本轮次步骤5无法计算result。
-步骤5：在所有四轮检查中，均未找到与ABONOS值匹配的CARGOS记录，因此无法计算任何result值。
-步骤6：已处理完所有ABONOS不为空的记录（共4条）。
-校验规则1：由于没有任何轮次能计算出result值，因此result_total = 0。
-校验规则2：ratio = result_total / total_cargo_cnt = 0 / 4 = 0。
-决策结果：ratio (0) &lt;= 0.8，因此输出“未命中快进快出（无异常）”。
-最终判定：根据规则逻辑，未发现快进快出异常。</t>
+          <t>规则ID: MSTAR_BBVA_DTL_ANAL_FAST_IO
+规则名称: 交易明细分析_快进快出
+执行步骤与结果：
+1. 步骤1：已获取Detalle de Movimientos Realizados中全部34条记录，并按OPER日期升序排序（数据已按此顺序提供）。
+2. 步骤2：统计所有记录中ABONOS取值不为空的总记录数。根据数据，有效Abonos交易数为4，因此 total_cargo_cnt = 4。
+3. 步骤3-6：遍历所有记录，查找ABONOS不为空的记录作为起始行，并寻找其对应的CARGOS记录。
+   - 第1轮：起始行是第16条记录（索引16，OPER:18/JUL，ABONOS1:13637.59）。向下查找CARGOS等于13637.59的记录。未找到任何CARGOS值为13637.59的记录。因此，无法获取OPER2，本轮result无法计算，不计入result_total。
+   - 第2轮：起始行是第24条记录（索引24，OPER:29/JUL，ABONOS1:82941.29）。向下查找CARGOS等于82941.29的记录。未找到任何CARGOS值为82941.29的记录。因此，无法获取OPER2，本轮result无法计算，不计入result_total。
+   - 第3轮：起始行是第25条记录（索引25，OPER:29/JUL，ABONOS1:63925.15）。向下查找CARGOS等于63925.15的记录。未找到任何CARGOS值为63925.15的记录。因此，无法获取OPER2，本轮result无法计算，不计入result_total。
+   - 第4轮：起始行是第33条记录（索引33，OPER:31/JUL，ABONOS1:3580.0）。向下查找CARGOS等于3580.0的记录。未找到任何CARGOS值为3580.0的记录。因此，无法获取OPER2，本轮result无法计算，不计入result_total。
+4. 校验规则1：在所有4轮检查中，均未找到与ABONOS值匹配的CARGOS记录，因此没有任何一轮可以计算出result值。result_total = 0。
+5. 校验规则2：ratio = result_total / total_cargo_cnt = 0 / 4 = 0。
+6. 决策结果：ratio (0) &lt;= 0.8，因此输出“未命中快进快出（无异常）”。
+关键交易明细（所有ABONOS记录）：
+1. 记录16: OPER:18/JUL, ABONOS:13637.59, 对应CARGOS未找到。
+2. 记录24: OPER:29/JUL, ABONOS:82941.29, 对应CARGOS未找到。
+3. 记录25: OPER:29/JUL, ABONOS:63925.15, 对应CARGOS未找到。
+4. 记录33: OPER:31/JUL, ABONOS:3580.0, 对应CARGOS未找到。
+计算过程：
+- total_cargo_cnt (ABONOS不为空记录数) = 4
+- result_total (result &lt;= 1的轮次数) = 0
+- ratio = 0 / 4 = 0
+比较结论：ratio = 0 &lt;= 0.8，未命中快进快出规则。
+hit判定理由：根据决策结果，ratio &lt;= 0.8时输出“未命中快进快出（无异常）”，因此判定为合规/一致，hit=false。</t>
         </is>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>分析严格遵循了规则MSTAR_BBVA_DTL_ANAL_FAST_IO的判断逻辑、校验规则和决策结果。在所有四笔入金（Abonos）交易后，均未在后续交易中找到金额相等的出金（Cargos）记录，因此无法构成‘快进快出’模式。ratio为0，未超过0.8的阈值。</t>
+          <t>规则逻辑要求查找与ABONOS金额相等的CARGOS记录以计算日期间隔。在本数据集中，所有4笔入账（Abonos）均未找到金额相等的出账（Cargos）记录，因此无法形成任何“快进快出”的配对，ratio为0。</t>
         </is>
       </c>
     </row>
@@ -1320,53 +1185,18 @@
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>步骤1：获取解析后Detalle de Movimientos Realizados部分的description对应的所有的值。
-执行结果：已获取全部34条交易的描述（DESCRIPCION）值。
-步骤2：校验规则：判断DESCRIPCION对应的所有的值是否包含以下任意关键词：Apuesta，médico / médic，juego。
-执行过程：逐条检查34条交易描述。
-1. SERVICIOSMODERNOSJILOT - 不包含关键词。
-2. PAGO CUENTA DE TERCERO 0060782423 BNET 0460107182 Silicones - 不包含关键词。
-3. SERV DEL CANTABRICO - 不包含关键词。
-4. SPEI ENVIADO SANTANDER 0033484832 014 0707250Herramientas 00014180655107788777 BNET01002507070033484832 HERRAMIENTAS JK - 不包含关键词。
-5. BP ORQUIDEA - 不包含关键词。
-6. SERV BANCA INTERNET OPS SERV BCA IN - 不包含关键词。
-7. IVA COM SERV BCA INTERNET IVA COM SERV BC - 不包含关键词。
-8. PAGO CUENTA DE TERCERO 0097117530 BNET 0133529169 Pago diferen de fa - 不包含关键词。
-9. CABLE Y COMUNICACION17350 CCM010816UK4 Su Pago Gracias 3237419 - 不包含关键词。
-10. MERPAGO*NOHEMIIVONNEM - 不包含关键词。
-11. SERVICIO PERIBAZ - 不包含关键词。
-12. BP ORQUIDEA - 不包含关键词。
-13. HOME DEPOT - 不包含关键词。
-14. CHEQUE PAGADO NO. - 不包含关键词。
-15. GAS EL ONCE CUAMATLA - 不包含关键词。
-16. PAGO CUENTA DE TERCERO 0077413032 BNET 0107419155 EDWIN ANTONIO - 不包含关键词。
-17. GASOL SERV COMBUSA - 不包含关键词。
-18. MERCADO PAGO - 不包含关键词。
-19. AT&amp;T COMUNICACIONES 21433 CNM980114PI2 CARGO RECURRENTE ATT - 不包含关键词。
-20. GASOL BP SAT SMA 2 - 不包含关键词。
-21. SERV DEL CANTABRICO - 不包含关键词。
-22. GAS EL ONCE CUAMATLA - 不包含关键词。
-23. SERV DEL CANTABRICO - 不包含关键词。
-24. SPEI RECIBIDOSCOTIABANK 0133969035 044 0290725folio fiscal 09834FCA1873 00044180001059308175 2025072940044B36L0000389741682 ZAMUDIO MARTINEZ VICTOR HUGO - 不包含关键词。
-25. SPEI RECIBIDOSCOTIABANK 0133977330 044 0290725folio fiscal C28F886E7A59 00044180001059308175 2025072940044B36L0000389742071 ZAMUDIO MARTINEZ VICTOR HUGO - 不包含关键词。
-26. GAS EL ONCE CUAMATLA - 不包含关键词。
-27. LIVERPOOL SATELITE - 不包含关键词。
-28. SPEI ENVIADO BANAMEX 0039320378 002 3107250Honorarios cp 00002180095683836100 BNET01002507310039320378 ERIKA FERNANDEZ CASILLAS - 不包含关键词。
-29. PAGO CUENTA DE TERCERO 0057618647 BNET 0444065476 Herramientas edw - 不包含关键词。
-30. S218 TM SATELITE NAUC - 不包含关键词。
-31. AUTOZONE 7188 - 不包含关键词。
-32. PAGO CUENTA DE TERCERO 0014028270 BNET 0197588054 Tornifac0415250 - 不包含关键词。
-33. DEPOSITO EN EFECTIVO 2051DEPOSITO - 不包含关键词。
-34. SPEI ENVIADO SANTANDER 0039712045 014 3107250Guantes 00014180655107788777 BNET01002507310039712045 HERRAMIENTAS JK - 不包含关键词。
-执行结果：所有34条交易描述均不包含关键词“Apuesta”、“médico / médic”或“juego”。
-步骤3：决策结果：命中任意一个，输出异常；全部都没命中，输出正常。
-执行结果：所有描述均未命中关键词，因此输出“正常”。
-结论：根据审计规则MSTAR_BBVA_DTL_ANAL_ABN_REM，本次检查结果为正常。</t>
+          <t>步骤1（判断逻辑）：获取解析后Detalle de Movimientos Realizados部分的description对应的所有的值。已执行，共获取34条交易的描述（DESCRIPCION）。
+步骤2（校验规则）：判断DESCRIPCION对应的所有的值是否包含以下任意关键词：Apuesta，médico / médic，juego。已执行，对所有34条描述进行逐一检查。
+执行结果：在所有34条交易描述中，均未发现包含关键词'Apuesta'、'médico'、'médic'或'juego'。
+决策结果：由于全部描述均未命中任意一个关键词，根据规则，输出正常。
+关键交易明细（示例，按原始顺序）：1. SERVICIOSMODERNOSJILOT, 2. PAGO CUENTA DE TERCERO..., 3. SERV DEL CANTABRICO, 4. SPEI ENVIADO SANTANDER..., 5. BP ORQUIDEA ... (后续交易描述均不包含关键词)。
+比较结论：所有交易描述均合规，无异常备注。
+判定理由：根据规则，未命中任何关键词，故判定为未命中（hit=false）。</t>
         </is>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>已严格按照判断逻辑、校验规则和决策结果执行。所有交易描述均不包含指定的异常关键词。</t>
+          <t>已严格遵循判断逻辑、校验规则和决策结果。交易总笔数为34笔，超过30笔，因此在evidence中未列出全部明细，仅概括了验证逻辑并提供了前5笔作为示例。</t>
         </is>
       </c>
     </row>
@@ -1395,45 +1225,50 @@
         <is>
           <t>规则ID: MSTAR_BBVA_TIME_CHK_SPECIAL
 规则名称: 交易时间校验_特殊时间段交易
-执行步骤说明：
-步骤1：获取解析后Detalle de Movimientos Realizados部分的description，如description内容为'RETIRO CAJERO AUTOMATICO JUN21 11:25 BBVA 9340 FOLIO:8584'，则提取出的时间'11:25'（24小时制）。
-执行结果：遍历提供的34条交易明细记录，检查每条记录的描述（description）字段。
-步骤2：依次获取每一条transactions部分的description中的时间，如果transactions部分的description内容中没有时间，则跳过该记录进入下一条，直到所有的记录都遍历完。
-执行结果：逐条检查34条记录的描述字段，提取其中包含的时间信息。
-步骤3：将获取到的所有的时间放到一个集合中。
-执行结果：从描述字段中提取到以下时间（24小时制）：
-1. 记录3: 11:04
-2. 记录5: 18:02
-3. 记录10: 14:56
-4. 记录11: 18:09
-5. 记录12: 14:56
-6. 记录13: 18:20
-7. 记录15: 20:48
-8. 记录17: 14:32
-9. 记录18: 02:39
-10. 记录20: 15:11
-11. 记录21: 20:20
-12. 记录22: 09:56
-13. 记录23: 18:26
-14. 记录26: 15:54
-15. 记录27: 20:12
-16. 记录30: 21:50
-17. 记录31: 16:14
-步骤4：统计获取的时间中处于2点-5点总交易笔数（包括2点和5点（24小时制）），记为count。
-执行结果：检查上述17个时间点，处于02:00至05:59（含）范围内的交易笔数。
-符合条件的时间点：
-- 记录18: 02:39
-统计结果：count = 1。
-校验规则：count是否大于10。
-执行结果：count = 1，不大于10。
-决策结果：如果count&gt;10，输出交易时间异常；count&lt;=10，输出正常。
-执行结果：count = 1 &lt;= 10，因此输出：正常。
-最终结论：根据审计规则MSTAR_BBVA_TIME_CHK_SPECIAL的判断逻辑和校验规则，统计到的特殊时间段（02:00-05:59）交易笔数为1，未超过10笔，判定为正常。</t>
+执行步骤：
+1. 按照判断逻辑步骤1，遍历Detalle de Movimientos Realizados的34条记录，从描述（description）字段中提取时间。
+2. 提取结果：
+   - 第1条描述："SERVICIOSMODERNOSJILOT ... 18:31 AUT: 097247" -&gt; 提取时间：18:31
+   - 第3条描述："SERV DEL CANTABRICO ... 11:04 AUT: 0CRV8T" -&gt; 提取时间：11:04
+   - 第5条描述："BP ORQUIDEA ... 18:02 AUT: 198LEW" -&gt; 提取时间：18:02
+   - 第10条描述："MERPAGO*NOHEMIIVONNEM ... 14:56 AUT: 1WXIRC" -&gt; 提取时间：14:56
+   - 第11条描述："SERVICIO PERIBAZ ... 18:09 AUT: 1YVUNP" -&gt; 提取时间：18:09
+   - 第12条描述："BP ORQUIDEA ... 14:56 AUT: 655443" -&gt; 提取时间：14:56
+   - 第13条描述："HOME DEPOT ... 18:20 AUT: 674357" -&gt; 提取时间：18:20
+   - 第15条描述："GAS EL ONCE CUAMATLA ... 20:48 AUT: 736320" -&gt; 提取时间：20:48
+   - 第17条描述："GASOL SERV COMBUSA ... 14:32 AUT: 649781" -&gt; 提取时间：14:32
+   - 第18条描述："MERCADO PAGO ... 02:39 AUT: 029858" -&gt; 提取时间：02:39
+   - 第20条描述："GASOL BP SAT SMA 2 ... 15:11 AUT: 162915" -&gt; 提取时间：15:11
+   - 第21条描述："SERV DEL CANTABRICO ... 20:20 AUT: 268176" -&gt; 提取时间：20:20
+   - 第22条描述："GAS EL ONCE CUAMATLA ... 09:56 AUT: 451806" -&gt; 提取时间：09:56
+   - 第23条描述："SERV DEL CANTABRICO ... 18:26 AUT: 814079" -&gt; 提取时间：18:26
+   - 第26条描述："GAS EL ONCE CUAMATLA ... 15:54 AUT: 253165" -&gt; 提取时间：15:54
+   - 第27条描述："LIVERPOOL SATELITE ... 20:12 AUT: 676187" -&gt; 提取时间：20:12
+   - 第30条描述："S218 TM SATELITE NAUC ... 21:50 AUT: 270651" -&gt; 提取时间：21:50
+   - 第31条描述："AUTOZONE 7188 ... 16:14 AUT: 583588" -&gt; 提取时间：16:14
+   - 其余记录（如第2、4、6、7、8、9、14、16、19、24、25、28、29、32、33、34条）的描述中不包含时间信息，按规则跳过。
+3. 按照判断逻辑步骤2，将提取到的时间放入集合。共提取到18个时间点。
+4. 按照判断逻辑步骤3，统计处于2点至5点（包括2点和5点）的交易笔数。
+   - 检查每个时间：
+     * 02:39 -&gt; 在2点至5点区间内。
+     * 其他时间（09:56, 11:04, 14:32, 14:56, 14:56, 15:11, 15:54, 16:14, 18:02, 18:09, 18:20, 18:26, 20:12, 20:20, 20:48, 21:50）均不在该区间内。
+   - 统计结果：count = 1。
+校验规则执行：
+- 校验规则：count是否大于10。
+- 计算结果：count = 1。
+- 比较：1 &lt;= 10。
+决策结果执行：
+- 根据决策结果逻辑：如果count&gt;10，输出交易时间异常；count&lt;=10，输出正常。
+- 由于count=1 &lt;= 10，因此输出：正常。
+结论：
+- 统计到的处于2点至5点的交易笔数为1笔，未超过10笔。
+- 根据规则，判定为正常，未命中规则。
+- 因此，hit值为false。</t>
         </is>
       </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
-          <t>已严格按照规则要求的步骤执行，从交易明细中提取了所有包含时间信息的记录，并准确统计了处于02:00至05:59时间段的交易笔数。</t>
+          <t>严格按照规则定义的判断逻辑、校验规则和决策结果执行。所有包含时间的交易描述均已检查，仅发现一笔交易（第18条：MERCADO PAGO，时间02:39）处于2点至5点区间。交易总笔数（34笔）大于30笔，但符合条件的交易笔数（1笔）少于30笔，因此在evidence中列出了所有包含时间的交易明细，以便人工复核。</t>
         </is>
       </c>
     </row>
